--- a/fromwork/潍城区工商户-法人用气情况.xlsx
+++ b/fromwork/潍城区工商户-法人用气情况.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\fromwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\python\fromwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCF6E99-72B7-4335-82AF-5D2ABFC64ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509E12E1-38CC-4954-9EDB-930034A80366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,11 +159,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -456,8 +456,11 @@
     <col min="2" max="2" width="15.8984375" customWidth="1"/>
     <col min="5" max="5" width="20.8984375" customWidth="1"/>
     <col min="6" max="6" width="27.8984375" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="0.296875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" customWidth="1"/>
+    <col min="11" max="11" width="12.19921875" customWidth="1"/>
     <col min="12" max="13" width="26.59765625" customWidth="1"/>
   </cols>
   <sheetData>
